--- a/results/I3_N5_M2_T15_C150_DepCentral_s3_res.xlsx
+++ b/results/I3_N5_M2_T15_C150_DepCentral_s3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>258.5057182373114</v>
+        <v>436.1857182372891</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.317000150680542</v>
+        <v>0.2239999771118164</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>68.33000000002242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.99</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.894440469094176</v>
+        <v>5.069516742254631</v>
       </c>
     </row>
     <row r="4">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.37517619638956</v>
+        <v>11.88393248259581</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.04215968028262</v>
+        <v>11.55091596648892</v>
       </c>
     </row>
     <row r="8">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>54.0099999999992</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>56.79499999999993</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>53.26999999999963</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>55.17499999999963</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>139.7</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>150.6599999999984</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>137.9249999999991</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>143.1449999999996</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>141.7150000000005</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.69000000000022</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.58000000000073</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61500000000051</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999927</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999941</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>152.9849999999985</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>153.2300000000022</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>159.1650000000016</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>156.6300000000028</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>161.4949999999986</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>85.66500000000059</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>77.02500000000225</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>77.97500000000109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>86.03999999999898</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>86.90999999999941</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>139.7</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>150.6599999999977</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>137.9249999999989</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>143.1449999999983</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>141.7149999999998</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>152.9850000000003</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>153.2300000000058</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>159.1650000000037</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>156.6300000000031</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>161.4950000000007</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6599999999976944</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -1508,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -1519,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.985000000000291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1530,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3.230000000005819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1541,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>9.165000000003708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1552,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.630000000003051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1563,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.49500000000065</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1621,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1632,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1643,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1654,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1720,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1731,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1742,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1753,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1888,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,10 +1915,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -1940,7 +1940,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -1951,7 +1951,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1962,20 +1962,9 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
